--- a/TestFiles/test.xlsx
+++ b/TestFiles/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E4C3D-6CAF-504E-B987-1A5F2F219765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3580" yWindow="2840" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -106,12 +107,36 @@
   </si>
   <si>
     <t>121.442372,31.185099</t>
+  </si>
+  <si>
+    <t>AdCode</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>兴业太古汇</t>
+  </si>
+  <si>
+    <t>太古汇</t>
+  </si>
+  <si>
+    <t>飞洲国际大厦</t>
+  </si>
+  <si>
+    <t>南京西路</t>
+  </si>
+  <si>
+    <t>上海市南京西路789号</t>
+  </si>
+  <si>
+    <t>IsPrior</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,36 +447,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="19.5" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +539,17 @@
       <c r="T1" t="s">
         <v>23</v>
       </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -524,7 +560,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -535,8 +571,11 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
+      <c r="V2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -557,6 +596,32 @@
       </c>
       <c r="H3" t="s">
         <v>28</v>
+      </c>
+      <c r="V3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/TestFiles/test.xlsx
+++ b/TestFiles/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E4C3D-6CAF-504E-B987-1A5F2F219765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F749BE-A3D8-3B46-9534-582E24BFEBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2840" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="2780" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>IsPrior</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>上海市闵行区申虹路663号</t>
+  </si>
+  <si>
+    <t>上海虹桥·协信中心</t>
+  </si>
+  <si>
+    <t>121.314917,31.202775</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -166,8 +181,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -621,7 +637,42 @@
         <v>35</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
